--- a/wikia/src/test/java/config/TestData.xlsx
+++ b/wikia/src/test/java/config/TestData.xlsx
@@ -4,23 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="14565" windowHeight="4725" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="15255" windowHeight="3960" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TEST" sheetId="1" r:id="rId1"/>
     <sheet name="DEV" sheetId="2" r:id="rId2"/>
-    <sheet name="CONTENT" sheetId="3" r:id="rId3"/>
-    <sheet name="Test_Address" sheetId="4" r:id="rId4"/>
-    <sheet name="TEST_Registration" sheetId="6" r:id="rId5"/>
-    <sheet name="TEST_Promo" sheetId="7" r:id="rId6"/>
-    <sheet name="Vendor_Signup" sheetId="8" r:id="rId7"/>
+    <sheet name="Test_Address" sheetId="4" r:id="rId3"/>
+    <sheet name="TEST_Registration" sheetId="6" r:id="rId4"/>
+    <sheet name="TEST_Promo" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="147">
   <si>
     <t xml:space="preserve">product TypeName </t>
   </si>
@@ -335,254 +334,6 @@
     <t xml:space="preserve">Product2ProductAddOn: master Event Physical, access level member, 2501 &gt; add on Product Physical, access level anonymous, 2518 </t>
   </si>
   <si>
-    <t>Registration Types</t>
-  </si>
-  <si>
-    <t>WHERE srcId</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>TEST DATA</t>
-  </si>
-  <si>
-    <t>forceLogin ==FALSE</t>
-  </si>
-  <si>
-    <t>SELECT *FROM iocontentdb.partneraccesscodes
-WHERE active =1
-AND instantMember =1
-AND conciergeAccess =1
-AND premium=1
-AND streamlinedSignUp=1;</t>
-  </si>
-  <si>
-    <t>accessCodeId ID 475
-FBINSIDER
-srcId 3351</t>
-  </si>
-  <si>
-    <t>SELECT *FROM iocontentdb.partneraccesscodes
-WHERE active =1
-AND instantMember =1
-AND conciergeAccess =1
-AND premium=1
-AND streamlinedSignUp=0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-accessCodeId 409 
-AMEXCONCIERGE2014
-srcId 1873
-accessCodeId 471 
-QUINTESSENTIALLY
-srcId 3213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. 
-instant member==false 
-concierge ==true
-streamlined ==true
-</t>
-  </si>
-  <si>
-    <t>SELECT *FROM iocontentdb.partneraccesscodes
-WHERE active =1
-AND instantMember =0
-AND conciergeAccess =1
-AND premium=1
-AND streamlinedSignUp=1;</t>
-  </si>
-  <si>
-    <t>not used on live yet.</t>
-  </si>
-  <si>
-    <t>SELECT *FROM iocontentdb.partneraccesscodes
-WHERE active =1
-AND instantMember =1
-AND conciergeAccess =0
-AND premium=1
-AND streamlinedSignUp=1;</t>
-  </si>
-  <si>
-    <t>accessCodeId 449 
-VIPGUEST
-srcId 2637
-accessCodeId 410
-CORPORATE 
-(not premium) 
-srcId 1884</t>
-  </si>
-  <si>
-    <t>SELECT *FROM iocontentdb.partneraccesscodes
-WHERE active =1
-AND instantMember =1
-AND conciergeAccess =0
-AND premium=1
-AND streamlinedSignUp=0;</t>
-  </si>
-  <si>
-    <t>accessCodeId 419 
-TREVORFRIEND
-srId 2038
-accessCodeId 16
-VIERRA
-(not premium) 
-srcId 828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.
-instant member ==true
-concierge ==true
-streamlined ==true
-</t>
-  </si>
-  <si>
-    <t>forceLogin ==TRUE</t>
-  </si>
-  <si>
-    <t>not run yet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. 
-instant member ==true
-concierge ==true
-streamlined ==false
-</t>
-  </si>
-  <si>
-    <t>4. 
-instant member ==true 
-concierge ==false 
-streamlined ==true</t>
-  </si>
-  <si>
-    <t>5. 
-instant member ==true 
-concierge ==false 
-streamlined ==false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accessCodeId 136
-GLODOWNEAD
-srcId 1359
-(not premium) 
-accessCodeId 395
-CBACCESS
-srcId 1825
-</t>
-  </si>
-  <si>
-    <t>6. 
-srcId is NOT mapped to access code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srcId = 3769
-</t>
-  </si>
-  <si>
-    <t>7. srcId is NOT mapped to access code</t>
-  </si>
-  <si>
-    <t>3351&gt;FBINSIDER</t>
-  </si>
-  <si>
-    <t>136&gt;GLODOWNEAD</t>
-  </si>
-  <si>
-    <t>3769&gt;</t>
-  </si>
-  <si>
-    <t>URL: srcId&gt;accesscode</t>
-  </si>
-  <si>
-    <t>Case Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1873&gt;AMEXCONCIERGE2014
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-3213&gt;QUINTESSENTIALLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-419&gt;TREVORFRIEND
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-16&gt;VIERRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1884&gt;CORPORATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-2637&gt;VIPGUEST
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO DATA&gt;not tested </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. AMEXCONCIERGE2014
-instant member ==true
-concierge ==true
-streamlined ==false
-premium==true
-</t>
-  </si>
-  <si>
-    <t>2.QUINTESSENTIALLY
-instant member ==true
-concierge ==true
-streamlined ==false
-premium==true</t>
-  </si>
-  <si>
-    <t>4. VIPGUEST
-instant member ==true 
-concierge ==false 
-streamlined ==true
-premium==true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. CORPORATE 
-instant member ==true 
-concierge ==false 
-streamlined ==true
-premium==false </t>
-  </si>
-  <si>
-    <t>5. TREVORFRIEND
-instant member ==true 
-concierge ==false 
-streamlined ==false
-premium==true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. VIERRA 
-instant member ==true 
-concierge ==false 
-streamlined ==false
-premium==false </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. FBINSIDER
-instant member ==true
-concierge ==true
-streamlined ==true
-premium==true
-</t>
-  </si>
-  <si>
-    <t>PARTNER TITLE/SRC ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sweepstakes master&gt; Prodiuct Physical </t>
   </si>
   <si>
@@ -790,90 +541,6 @@
 2) 'Duration' -&gt; durationMin ('4hrs') 
 3) Calendar mandatory 
 4) PRICE:' $5 /person ($40 total) '</t>
-  </si>
-  <si>
-    <t>categoryId</t>
-  </si>
-  <si>
-    <t>categoryName</t>
-  </si>
-  <si>
-    <t>Adventure</t>
-  </si>
-  <si>
-    <t>Culinary</t>
-  </si>
-  <si>
-    <t>Fashion &amp; Style</t>
-  </si>
-  <si>
-    <t>Fine Art</t>
-  </si>
-  <si>
-    <t>Photography</t>
-  </si>
-  <si>
-    <t>Artisans</t>
-  </si>
-  <si>
-    <t>Health and Wellness</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Corporate Speaking</t>
-  </si>
-  <si>
-    <t>Sports</t>
-  </si>
-  <si>
-    <t>Beer, Wine &amp; Spirits</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>topics</t>
-  </si>
-  <si>
-    <t>Travel, Instructor, Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chef, Food Purveyor/Artisan, Caterer, Pastry Chef, Other </t>
-  </si>
-  <si>
-    <t>Fashion Stylist, Make-up Artist, Hair Stylist, Other</t>
-  </si>
-  <si>
-    <t>Painter, Illustrator, Sculptor, Gallery, Other</t>
-  </si>
-  <si>
-    <t>Event Photographer, Fine Art Photographer, Portrait Photographer, Other</t>
-  </si>
-  <si>
-    <t>Craftsman, Jeweler, Woodworker, Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoga/Pilates Instructor, Nutritionist, Personal Trainer,
- Massage Therapist, Other
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solo Performer, Band/Group, Dancer/Choreographer,
- DJ, Instructor, Singer, Other
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technology, Science, Art &amp; Entertainment, Politics &amp; Government, 
- Design, Global Issues, Business, Other
-</t>
-  </si>
-  <si>
-    <t>Athlete, Instructor, Other</t>
-  </si>
-  <si>
-    <t>Bartender, Winery, Brewmaster, Other</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="C2" s="7">
         <v>2650</v>
@@ -1446,7 +1113,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="409.6">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1462,13 +1129,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="C6" s="7">
         <v>3792</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="409.6">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1481,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="C8" s="7">
         <v>2759</v>
@@ -1492,13 +1159,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="C9" s="7">
         <v>621</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="409.6">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1509,7 +1176,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="409.6">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1520,7 +1187,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="409.6">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1531,7 +1198,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="409.6">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1542,7 +1209,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="409.6">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1553,7 +1220,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="409.6">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1569,7 +1236,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="C16" s="7">
         <v>1591</v>
@@ -1580,13 +1247,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="C17" s="7">
         <v>1591</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="409.6">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1597,7 +1264,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="409.6">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1608,7 +1275,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="409.6">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1616,7 +1283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="409.6">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1624,7 +1291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="409.6">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1632,7 +1299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="409.6">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1643,7 +1310,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="409.6">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1676,12 +1343,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="409.6">
       <c r="A27" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="409.6">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1692,7 +1359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="409.6">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1703,7 +1370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="409.6">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1714,7 +1381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="409.6">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -1725,7 +1392,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="409.6">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -1736,7 +1403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="409.6">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -1747,7 +1414,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="409.6">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -1769,7 +1436,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="409.6">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -1824,7 +1491,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="409.6">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -1835,12 +1502,12 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="409.6">
       <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C42" s="7">
         <v>2176</v>
@@ -1851,7 +1518,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="C43" s="7">
         <v>2740</v>
@@ -1862,18 +1529,18 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="409.6">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="C45" s="7">
         <v>3618</v>
@@ -1884,18 +1551,18 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="C46" s="7">
         <v>2708</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="409.6">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="C47" s="7">
         <v>2682</v>
@@ -1906,10 +1573,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="90">
@@ -1917,10 +1584,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="105">
@@ -1928,10 +1595,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="90">
@@ -1939,10 +1606,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="105">
@@ -1950,10 +1617,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="90">
@@ -1961,10 +1628,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="120">
@@ -1972,10 +1639,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="120">
@@ -1983,10 +1650,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="105">
@@ -1994,10 +1661,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="90">
@@ -2005,18 +1672,18 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="409.6">
       <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="C58" s="7">
         <v>3621</v>
@@ -2027,7 +1694,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="C59" s="7">
         <v>2681</v>
@@ -2038,29 +1705,29 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="C60" s="7">
         <v>2677</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" ht="409.6">
       <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C61" s="7">
         <v>3792</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" ht="409.6">
       <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="C62" s="7">
         <v>3797</v>
@@ -2071,7 +1738,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="C63" s="7">
         <v>3794</v>
@@ -2082,18 +1749,18 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="C64" s="7">
         <v>3795</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="409.6">
       <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="C65" s="7">
         <v>3887</v>
@@ -2104,7 +1771,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="C66" s="7">
         <v>3701</v>
@@ -2115,7 +1782,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="C67" s="7">
         <v>3681</v>
@@ -2409,244 +2076,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.140625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2898,12 +2333,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC998"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2918,28 +2353,14 @@
     <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="35.25" thickBot="1">
-      <c r="A1" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>149</v>
-      </c>
+    <row r="1" spans="1:29" ht="18" thickBot="1">
+      <c r="A1" s="20"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
@@ -2963,25 +2384,12 @@
       <c r="AB1" s="12"/>
       <c r="AC1" s="12"/>
     </row>
-    <row r="2" spans="1:29" ht="102.75" thickBot="1">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>110</v>
-      </c>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -3006,25 +2414,12 @@
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
     </row>
-    <row r="3" spans="1:29" ht="102.75" thickBot="1">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>112</v>
-      </c>
+    <row r="3" spans="1:29" ht="15.75" thickBot="1">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -3049,25 +2444,12 @@
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
     </row>
-    <row r="4" spans="1:29" ht="102.75" thickBot="1">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>112</v>
-      </c>
+    <row r="4" spans="1:29" ht="15.75" thickBot="1">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
@@ -3092,25 +2474,12 @@
       <c r="AB4" s="14"/>
       <c r="AC4" s="14"/>
     </row>
-    <row r="5" spans="1:29" ht="90" thickBot="1">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>115</v>
-      </c>
+    <row r="5" spans="1:29" ht="15.75" thickBot="1">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -3135,25 +2504,12 @@
       <c r="AB5" s="14"/>
       <c r="AC5" s="14"/>
     </row>
-    <row r="6" spans="1:29" ht="102.75" thickBot="1">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>117</v>
-      </c>
+    <row r="6" spans="1:29" ht="15.75" thickBot="1">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -3178,25 +2534,12 @@
       <c r="AB6" s="14"/>
       <c r="AC6" s="14"/>
     </row>
-    <row r="7" spans="1:29" ht="102.75" thickBot="1">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>117</v>
-      </c>
+    <row r="7" spans="1:29" ht="15.75" thickBot="1">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -3221,25 +2564,12 @@
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
     </row>
-    <row r="8" spans="1:29" ht="102.75" thickBot="1">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>119</v>
-      </c>
+    <row r="8" spans="1:29" ht="15.75" thickBot="1">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -3264,25 +2594,12 @@
       <c r="AB8" s="14"/>
       <c r="AC8" s="14"/>
     </row>
-    <row r="9" spans="1:29" ht="102.75" thickBot="1">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>119</v>
-      </c>
+    <row r="9" spans="1:29" ht="15.75" thickBot="1">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -3367,18 +2684,12 @@
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
     </row>
-    <row r="12" spans="1:29" ht="77.25" thickBot="1">
-      <c r="B12" s="14" t="s">
-        <v>120</v>
-      </c>
+    <row r="12" spans="1:29" ht="15.75" thickBot="1">
+      <c r="B12" s="14"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
-        <v>121</v>
-      </c>
+      <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="12" t="s">
-        <v>122</v>
-      </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -3433,14 +2744,10 @@
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
     </row>
-    <row r="14" spans="1:29" ht="86.25" thickBot="1">
-      <c r="B14" s="17" t="s">
-        <v>123</v>
-      </c>
+    <row r="14" spans="1:29" ht="15.75" thickBot="1">
+      <c r="B14" s="17"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="14" t="s">
-        <v>121</v>
-      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -3497,18 +2804,12 @@
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
     </row>
-    <row r="16" spans="1:29" ht="72" thickBot="1">
-      <c r="B16" s="17" t="s">
-        <v>113</v>
-      </c>
+    <row r="16" spans="1:29" ht="15.75" thickBot="1">
+      <c r="B16" s="17"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="14" t="s">
-        <v>121</v>
-      </c>
+      <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="15" t="s">
-        <v>115</v>
-      </c>
+      <c r="F16" s="15"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -3563,18 +2864,12 @@
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
     </row>
-    <row r="18" spans="2:29" ht="51.75" thickBot="1">
-      <c r="B18" s="14" t="s">
-        <v>124</v>
-      </c>
+    <row r="18" spans="2:29" ht="15.75" thickBot="1">
+      <c r="B18" s="14"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="14" t="s">
-        <v>121</v>
-      </c>
+      <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="12" t="s">
-        <v>122</v>
-      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -3629,22 +2924,12 @@
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
     </row>
-    <row r="20" spans="2:29" ht="115.5" thickBot="1">
-      <c r="B20" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>126</v>
-      </c>
+    <row r="20" spans="2:29" ht="15.75" thickBot="1">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -3699,20 +2984,12 @@
       <c r="AB21" s="14"/>
       <c r="AC21" s="14"/>
     </row>
-    <row r="22" spans="2:29" ht="51.75" thickBot="1">
-      <c r="B22" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>121</v>
-      </c>
+    <row r="22" spans="2:29" ht="15.75" thickBot="1">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="14" t="s">
-        <v>128</v>
-      </c>
+      <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -3767,14 +3044,10 @@
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
     </row>
-    <row r="24" spans="2:29" ht="26.25" thickBot="1">
-      <c r="B24" s="19" t="s">
-        <v>129</v>
-      </c>
+    <row r="24" spans="2:29" ht="15.75" thickBot="1">
+      <c r="B24" s="19"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="14" t="s">
-        <v>108</v>
-      </c>
+      <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -33027,11 +32300,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -33039,162 +32312,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="72.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>88</v>
-      </c>
-      <c r="B2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>147</v>
-      </c>
-      <c r="B3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>109</v>
-      </c>
-      <c r="B4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>282</v>
-      </c>
-      <c r="B6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>262</v>
-      </c>
-      <c r="B7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45">
-      <c r="A8">
-        <v>214</v>
-      </c>
-      <c r="B8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="60">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45">
-      <c r="A10">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>313</v>
-      </c>
-      <c r="B12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>